--- a/Datos/Database by set/Set with text box/Xlsx sets/Eventide Promos (PEVE).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Eventide Promos (PEVE).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,91 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Figure of Destiny</t>
+          <t>('Figure of Destiny', ['{R/W}', 'Creature — Kithkin', '{R/W}: Figure of Destiny becomes a Kithkin Spirit with base power and toughness 2/2.', '{R/W}{R/W}{R/W}: If Figure of Destiny is a Spirit, it becomes a Kithkin Spirit Warrior with base power and toughness 4/4.', '{R/W}{R/W}{R/W}{R/W}{R/W}{R/W}: If Figure of Destiny is a Warrior, it becomes a Kithkin Spirit Warrior Avatar with base power and toughness 8/8, flying, and first strike.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{R/W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Kithkin</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{R/W}: Figure of Destiny becomes a Kithkin Spirit with base power and toughness 2/2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{R/W}{R/W}{R/W}: If Figure of Destiny is a Spirit, it becomes a Kithkin Spirit Warrior with base power and toughness 4/4.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{R/W}{R/W}{R/W}{R/W}{R/W}{R/W}: If Figure of Destiny is a Warrior, it becomes a Kithkin Spirit Warrior Avatar with base power and toughness 8/8, flying, and first strike.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Overbeing of Myth</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{G/U}{G/U}{G/U}{G/U}{G/U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Creature — Spirit Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Overbeing of Myth’s power and toughness are each equal to the number of cards in your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>At the beginning of your draw step, draw an additional card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>*/*</t>
+          <t>('Overbeing of Myth', ['{G/U}{G/U}{G/U}{G/U}{G/U}', 'Creature — Spirit Avatar', 'Overbeing of Myth’s power and toughness are each equal to the number of cards in your hand.', 'At the beginning of your draw step, draw an additional card.', '*/*'])</t>
         </is>
       </c>
     </row>
